--- a/duty.xlsx
+++ b/duty.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7202BE28-229A-498A-BB12-B5542C46A778}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20FD44E8-9C81-45EA-BBE9-2F0ED13300E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7200" yWindow="2445" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -417,7 +417,7 @@
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/duty.xlsx
+++ b/duty.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet state="visible" name="Загальне" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Наряди" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Минулі_наряди" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Прибирання" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Кафедра" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Роботи" sheetId="6" r:id="rId9"/>
+    <sheet sheetId="1" name="Загальне" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="Наряди" state="visible" r:id="rId5"/>
+    <sheet sheetId="3" name="Минулі_наряди" state="visible" r:id="rId6"/>
+    <sheet sheetId="4" name="Прибирання" state="visible" r:id="rId7"/>
+    <sheet sheetId="5" name="Кафедра" state="visible" r:id="rId8"/>
+    <sheet sheetId="6" name="Роботи" state="visible" r:id="rId9"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -75,38 +75,39 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd.mm"/>
     <numFmt numFmtId="165" formatCode="dd.mm.yyyy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <color theme="1"/>
+      <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
       <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
+      <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
       <color theme="1"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <scheme val="minor"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -114,7 +115,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -148,7 +149,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -162,130 +169,114 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="32">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="bottom" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="bottom" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="bottom" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="bottom" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="bottom" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="bottom" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="bottom" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="bottom" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="bottom" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="bottom" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="bottom" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
     </xf>
-    <xf borderId="1" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="6" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -483,16 +474,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" defaultColWidth="12.63" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -515,39 +507,37 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="4">
-        <f>'Наряди'!B34</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="4">
         <f>'Кафедра'!B42</f>
         <v>0</v>
       </c>
       <c r="D2" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4">
         <f>'Роботи'!B43</f>
         <v>2</v>
       </c>
       <c r="F2" s="5">
-        <v>44711.0</v>
+        <v>44711</v>
       </c>
       <c r="G2" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="6">
-        <f>'Наряди'!C34</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="4">
         <f>'Кафедра'!C42</f>
@@ -559,13 +549,13 @@
         <v>2</v>
       </c>
       <c r="F3" s="5">
-        <v>44711.0</v>
+        <v>44711</v>
       </c>
       <c r="G3" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -583,13 +573,13 @@
         <v>4</v>
       </c>
       <c r="F4" s="9">
-        <v>44711.0</v>
+        <v>44711</v>
       </c>
       <c r="G4" s="8">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -607,19 +597,18 @@
         <v>3</v>
       </c>
       <c r="F5" s="5">
-        <v>44711.0</v>
+        <v>44711</v>
       </c>
       <c r="G5" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="4">
-        <f>'Наряди'!F34</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" s="4">
         <f>'Кафедра'!F42</f>
@@ -631,14 +620,14 @@
         <v>3</v>
       </c>
       <c r="F6" s="5">
-        <v>44711.0</v>
+        <v>44711</v>
       </c>
       <c r="G6" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="10"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -650,7 +639,7 @@
       <c r="I8" s="13"/>
       <c r="J8" s="12"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
@@ -669,7 +658,7 @@
       <c r="P10" s="14"/>
       <c r="Q10" s="14"/>
     </row>
-    <row r="11">
+    <row r="11" spans="11:17" x14ac:dyDescent="0.25">
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
@@ -678,7 +667,7 @@
       <c r="P11" s="15"/>
       <c r="Q11" s="14"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -697,7 +686,7 @@
       <c r="P12" s="16"/>
       <c r="Q12" s="14"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="16"/>
       <c r="C13" s="12"/>
@@ -716,7 +705,7 @@
       <c r="P13" s="16"/>
       <c r="Q13" s="14"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -735,7 +724,7 @@
       <c r="P14" s="12"/>
       <c r="Q14" s="14"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="12"/>
       <c r="C15" s="16"/>
@@ -754,7 +743,7 @@
       <c r="P15" s="16"/>
       <c r="Q15" s="14"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="16"/>
       <c r="C16" s="12"/>
@@ -773,7 +762,7 @@
       <c r="P16" s="16"/>
       <c r="Q16" s="14"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -792,7 +781,7 @@
       <c r="P17" s="16"/>
       <c r="Q17" s="14"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
@@ -811,7 +800,7 @@
       <c r="P18" s="17"/>
       <c r="Q18" s="14"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -830,7 +819,7 @@
       <c r="P19" s="14"/>
       <c r="Q19" s="14"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
@@ -849,7 +838,7 @@
       <c r="P20" s="14"/>
       <c r="Q20" s="14"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="18"/>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
@@ -867,7 +856,7 @@
       <c r="O21" s="15"/>
       <c r="P21" s="15"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -885,7 +874,7 @@
       <c r="O22" s="16"/>
       <c r="P22" s="16"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="16"/>
       <c r="C23" s="12"/>
@@ -903,7 +892,7 @@
       <c r="O23" s="12"/>
       <c r="P23" s="16"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -921,7 +910,7 @@
       <c r="O24" s="12"/>
       <c r="P24" s="12"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="12"/>
       <c r="C25" s="16"/>
@@ -939,7 +928,7 @@
       <c r="O25" s="16"/>
       <c r="P25" s="16"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="16"/>
       <c r="C26" s="12"/>
@@ -957,7 +946,7 @@
       <c r="O26" s="16"/>
       <c r="P26" s="16"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -975,7 +964,7 @@
       <c r="O27" s="16"/>
       <c r="P27" s="16"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
@@ -993,7 +982,7 @@
       <c r="O28" s="17"/>
       <c r="P28" s="17"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -1012,21 +1001,21 @@
       <c r="P29" s="14"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A2:H34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" defaultColWidth="12.63" customHeight="1"/>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
@@ -1049,7 +1038,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>13</v>
       </c>
@@ -1074,43 +1063,43 @@
         <v>5</v>
       </c>
       <c r="G3" s="20">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H3" s="20">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="21">
-        <v>44713.0</v>
+        <v>44713</v>
       </c>
       <c r="B4" s="22"/>
       <c r="C4" s="22"/>
       <c r="D4" s="20">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="22"/>
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
       <c r="H4" s="22"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="21">
-        <v>44714.0</v>
+        <v>44714</v>
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
       <c r="E5" s="22"/>
       <c r="F5" s="20">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="21">
-        <v>44715.0</v>
+        <v>44715</v>
       </c>
       <c r="B6" s="22"/>
       <c r="C6" s="22"/>
@@ -1120,23 +1109,23 @@
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="21">
-        <v>44716.0</v>
+        <v>44716</v>
       </c>
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
       <c r="E7" s="20">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="22"/>
       <c r="G7" s="22"/>
       <c r="H7" s="22"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="21">
-        <v>44717.0</v>
+        <v>44717</v>
       </c>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
@@ -1146,9 +1135,9 @@
       <c r="G8" s="22"/>
       <c r="H8" s="22"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="21">
-        <v>44718.0</v>
+        <v>44718</v>
       </c>
       <c r="B9" s="20" t="s">
         <v>14</v>
@@ -1172,9 +1161,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="21">
-        <v>44719.0</v>
+        <v>44719</v>
       </c>
       <c r="B10" s="20" t="s">
         <v>14</v>
@@ -1198,9 +1187,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="21">
-        <v>44720.0</v>
+        <v>44720</v>
       </c>
       <c r="B11" s="20" t="s">
         <v>14</v>
@@ -1224,9 +1213,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="21">
-        <v>44721.0</v>
+        <v>44721</v>
       </c>
       <c r="B12" s="20" t="s">
         <v>14</v>
@@ -1250,9 +1239,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="21">
-        <v>44722.0</v>
+        <v>44722</v>
       </c>
       <c r="B13" s="20" t="s">
         <v>14</v>
@@ -1276,9 +1265,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="21">
-        <v>44723.0</v>
+        <v>44723</v>
       </c>
       <c r="B14" s="20" t="s">
         <v>14</v>
@@ -1302,9 +1291,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="21">
-        <v>44724.0</v>
+        <v>44724</v>
       </c>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
@@ -1314,15 +1303,15 @@
       <c r="G15" s="22"/>
       <c r="H15" s="22"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="21">
-        <v>44725.0</v>
+        <v>44725</v>
       </c>
       <c r="B16" s="20">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C16" s="20">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
@@ -1330,9 +1319,9 @@
       <c r="G16" s="22"/>
       <c r="H16" s="22"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="21">
-        <v>44726.0</v>
+        <v>44726</v>
       </c>
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
@@ -1342,9 +1331,9 @@
       <c r="G17" s="22"/>
       <c r="H17" s="20"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="21">
-        <v>44727.0</v>
+        <v>44727</v>
       </c>
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
@@ -1354,23 +1343,23 @@
       <c r="G18" s="22"/>
       <c r="H18" s="22"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="21">
-        <v>44728.0</v>
+        <v>44728</v>
       </c>
       <c r="B19" s="20"/>
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
       <c r="E19" s="20"/>
       <c r="F19" s="20">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="22"/>
       <c r="H19" s="22"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="21">
-        <v>44729.0</v>
+        <v>44729</v>
       </c>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
@@ -1380,9 +1369,9 @@
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="21">
-        <v>44730.0</v>
+        <v>44730</v>
       </c>
       <c r="B21" s="22"/>
       <c r="C21" s="22"/>
@@ -1392,9 +1381,9 @@
       <c r="G21" s="22"/>
       <c r="H21" s="22"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="21">
-        <v>44731.0</v>
+        <v>44731</v>
       </c>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
@@ -1404,23 +1393,23 @@
       <c r="G22" s="22"/>
       <c r="H22" s="22"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="21">
-        <v>44732.0</v>
+        <v>44732</v>
       </c>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
       <c r="D23" s="20">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="22"/>
       <c r="F23" s="22"/>
       <c r="G23" s="22"/>
       <c r="H23" s="22"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="21">
-        <v>44733.0</v>
+        <v>44733</v>
       </c>
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
@@ -1430,9 +1419,9 @@
       <c r="G24" s="22"/>
       <c r="H24" s="22"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="21">
-        <v>44734.0</v>
+        <v>44734</v>
       </c>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
@@ -1442,9 +1431,9 @@
       <c r="G25" s="22"/>
       <c r="H25" s="22"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="21">
-        <v>44735.0</v>
+        <v>44735</v>
       </c>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
@@ -1454,9 +1443,9 @@
       <c r="G26" s="22"/>
       <c r="H26" s="22"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="21">
-        <v>44736.0</v>
+        <v>44736</v>
       </c>
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
@@ -1466,9 +1455,9 @@
       <c r="G27" s="22"/>
       <c r="H27" s="22"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="21">
-        <v>44737.0</v>
+        <v>44737</v>
       </c>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
@@ -1478,25 +1467,25 @@
       <c r="G28" s="22"/>
       <c r="H28" s="22"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="21">
-        <v>44738.0</v>
+        <v>44738</v>
       </c>
       <c r="B29" s="22"/>
       <c r="C29" s="22"/>
       <c r="D29" s="20">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E29" s="20">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F29" s="20"/>
       <c r="G29" s="22"/>
       <c r="H29" s="22"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="21">
-        <v>44739.0</v>
+        <v>44739</v>
       </c>
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
@@ -1506,9 +1495,9 @@
       <c r="G30" s="22"/>
       <c r="H30" s="22"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="21">
-        <v>44740.0</v>
+        <v>44740</v>
       </c>
       <c r="B31" s="22"/>
       <c r="C31" s="22"/>
@@ -1518,9 +1507,9 @@
       <c r="G31" s="22"/>
       <c r="H31" s="22"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="21">
-        <v>44741.0</v>
+        <v>44741</v>
       </c>
       <c r="B32" s="22"/>
       <c r="C32" s="22"/>
@@ -1530,9 +1519,9 @@
       <c r="G32" s="22"/>
       <c r="H32" s="22"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="21">
-        <v>44742.0</v>
+        <v>44742</v>
       </c>
       <c r="B33" s="22"/>
       <c r="C33" s="22"/>
@@ -1542,52 +1531,52 @@
       <c r="G33" s="22"/>
       <c r="H33" s="22"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
         <v>15</v>
       </c>
       <c r="B34" s="22">
-        <f t="shared" ref="B34:G34" si="1">SUM(B3:B33)</f>
+        <f t="shared" ref="B34:G34" si="0">SUM(B3:B33)</f>
         <v>6</v>
       </c>
       <c r="C34" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D34" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="E34" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="F34" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="G34" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H34" s="22"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" defaultColWidth="12.63" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1" s="7" t="s">
         <v>6</v>
       </c>
@@ -1606,30 +1595,30 @@
       <c r="G1" s="23"/>
       <c r="H1" s="24"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="20">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C2" s="20">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D2" s="20">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E2" s="20">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F2" s="20">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G2" s="25"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="21">
-        <v>44705.0</v>
+        <v>44705</v>
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
@@ -1637,33 +1626,33 @@
       <c r="E3" s="22"/>
       <c r="F3" s="22"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="21">
-        <v>44706.0</v>
+        <v>44706</v>
       </c>
       <c r="B4" s="22"/>
       <c r="C4" s="20">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="22"/>
       <c r="F4" s="22"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="21">
-        <v>44707.0</v>
+        <v>44707</v>
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
       <c r="E5" s="20">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="22"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="21">
-        <v>44708.0</v>
+        <v>44708</v>
       </c>
       <c r="B6" s="22"/>
       <c r="C6" s="22"/>
@@ -1671,21 +1660,21 @@
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="21">
-        <v>44709.0</v>
+        <v>44709</v>
       </c>
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
       <c r="E7" s="20">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="22"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="21">
-        <v>44710.0</v>
+        <v>44710</v>
       </c>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
@@ -1693,40 +1682,40 @@
       <c r="E8" s="22"/>
       <c r="F8" s="22"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="21">
-        <v>44711.0</v>
+        <v>44711</v>
       </c>
       <c r="B9" s="20">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
       <c r="F9" s="22"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="21">
-        <v>44712.0</v>
+        <v>44712</v>
       </c>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
       <c r="E10" s="20">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="22"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="20">
-        <f t="shared" ref="B11:C11" si="1">SUM(B2:B10)</f>
+        <f t="shared" ref="B11:C11" si="0">SUM(B2:B10)</f>
         <v>5</v>
       </c>
       <c r="C11" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D11" s="20">
@@ -1734,35 +1723,35 @@
         <v>5</v>
       </c>
       <c r="E11" s="20">
-        <f t="shared" ref="E11:F11" si="2">SUM(E2:E10)</f>
+        <f t="shared" ref="E11:F11" si="1">SUM(E2:E10)</f>
         <v>5</v>
       </c>
       <c r="F11" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="G11" s="25"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A2:H45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" defaultColWidth="12.63" customHeight="1"/>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
     </row>
-    <row r="3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
@@ -1781,7 +1770,7 @@
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>13</v>
       </c>
@@ -1793,12 +1782,12 @@
       <c r="G4" s="27"/>
       <c r="H4" s="14"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="21">
-        <v>44705.0</v>
+        <v>44705</v>
       </c>
       <c r="B5" s="28">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
@@ -1807,27 +1796,27 @@
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="21">
-        <v>44706.0</v>
+        <v>44706</v>
       </c>
       <c r="B6" s="29"/>
       <c r="C6" s="20"/>
       <c r="D6" s="28">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="29"/>
       <c r="F6" s="29"/>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="21">
-        <v>44707.0</v>
+        <v>44707</v>
       </c>
       <c r="B7" s="29"/>
       <c r="C7" s="28">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="29"/>
       <c r="E7" s="20"/>
@@ -1835,37 +1824,37 @@
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="21">
-        <v>44708.0</v>
+        <v>44708</v>
       </c>
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
       <c r="E8" s="28">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="29"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="21">
-        <v>44709.0</v>
+        <v>44709</v>
       </c>
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
       <c r="E9" s="20"/>
       <c r="F9" s="28">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="21">
-        <v>44710.0</v>
+        <v>44710</v>
       </c>
       <c r="B10" s="30"/>
       <c r="C10" s="30"/>
@@ -1875,12 +1864,12 @@
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="21">
-        <v>44711.0</v>
+        <v>44711</v>
       </c>
       <c r="B11" s="20">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C11" s="29"/>
       <c r="D11" s="29"/>
@@ -1889,13 +1878,13 @@
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="21">
-        <v>44712.0</v>
+        <v>44712</v>
       </c>
       <c r="B12" s="29"/>
       <c r="C12" s="28">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="29"/>
       <c r="E12" s="29"/>
@@ -1903,69 +1892,69 @@
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="21">
-        <v>44713.0</v>
+        <v>44713</v>
       </c>
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
       <c r="D13" s="28">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="29"/>
       <c r="F13" s="29"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="21">
-        <v>44714.0</v>
+        <v>44714</v>
       </c>
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
       <c r="D14" s="28"/>
       <c r="E14" s="28">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="29"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="21">
-        <v>44715.0</v>
+        <v>44715</v>
       </c>
       <c r="B15" s="28">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C15" s="29"/>
       <c r="D15" s="29"/>
       <c r="E15" s="29"/>
       <c r="F15" s="28">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="21">
-        <v>44716.0</v>
+        <v>44716</v>
       </c>
       <c r="B16" s="28">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C16" s="29"/>
       <c r="D16" s="29"/>
       <c r="E16" s="29"/>
       <c r="F16" s="28">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="21">
-        <v>44717.0</v>
+        <v>44717</v>
       </c>
       <c r="B17" s="30"/>
       <c r="C17" s="30"/>
@@ -1975,9 +1964,9 @@
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="21">
-        <v>44718.0</v>
+        <v>44718</v>
       </c>
       <c r="B18" s="28" t="s">
         <v>16</v>
@@ -1997,9 +1986,9 @@
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="21">
-        <v>44719.0</v>
+        <v>44719</v>
       </c>
       <c r="B19" s="28" t="s">
         <v>16</v>
@@ -2019,9 +2008,9 @@
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="21">
-        <v>44720.0</v>
+        <v>44720</v>
       </c>
       <c r="B20" s="28" t="s">
         <v>16</v>
@@ -2041,9 +2030,9 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="21">
-        <v>44721.0</v>
+        <v>44721</v>
       </c>
       <c r="B21" s="28" t="s">
         <v>16</v>
@@ -2063,9 +2052,9 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="21">
-        <v>44722.0</v>
+        <v>44722</v>
       </c>
       <c r="B22" s="28" t="s">
         <v>16</v>
@@ -2085,9 +2074,9 @@
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="21">
-        <v>44723.0</v>
+        <v>44723</v>
       </c>
       <c r="B23" s="28" t="s">
         <v>16</v>
@@ -2107,9 +2096,9 @@
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="21">
-        <v>44724.0</v>
+        <v>44724</v>
       </c>
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
@@ -2119,54 +2108,54 @@
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="21">
-        <v>44725.0</v>
+        <v>44725</v>
       </c>
       <c r="B25" s="29"/>
       <c r="C25" s="29"/>
       <c r="D25" s="28">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="29"/>
       <c r="F25" s="29"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="21">
-        <v>44726.0</v>
+        <v>44726</v>
       </c>
       <c r="B26" s="29"/>
       <c r="C26" s="29"/>
       <c r="D26" s="29"/>
       <c r="E26" s="28">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F26" s="29"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="21">
-        <v>44727.0</v>
+        <v>44727</v>
       </c>
       <c r="B27" s="29"/>
       <c r="C27" s="29"/>
       <c r="D27" s="29"/>
       <c r="E27" s="29"/>
       <c r="F27" s="28">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="21">
-        <v>44728.0</v>
+        <v>44728</v>
       </c>
       <c r="B28" s="28">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C28" s="29"/>
       <c r="D28" s="29"/>
@@ -2175,13 +2164,13 @@
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="21">
-        <v>44729.0</v>
+        <v>44729</v>
       </c>
       <c r="B29" s="29"/>
       <c r="C29" s="28">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D29" s="29"/>
       <c r="E29" s="29"/>
@@ -2189,23 +2178,23 @@
       <c r="G29" s="14"/>
       <c r="H29" s="14"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="21">
-        <v>44730.0</v>
+        <v>44730</v>
       </c>
       <c r="B30" s="29"/>
       <c r="C30" s="29"/>
       <c r="D30" s="28">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E30" s="29"/>
       <c r="F30" s="29"/>
       <c r="G30" s="14"/>
       <c r="H30" s="14"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="21">
-        <v>44731.0</v>
+        <v>44731</v>
       </c>
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
@@ -2215,40 +2204,40 @@
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="21">
-        <v>44732.0</v>
+        <v>44732</v>
       </c>
       <c r="B32" s="29"/>
       <c r="C32" s="29"/>
       <c r="D32" s="29"/>
       <c r="E32" s="28">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F32" s="29"/>
       <c r="G32" s="14"/>
       <c r="H32" s="14"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="21">
-        <v>44733.0</v>
+        <v>44733</v>
       </c>
       <c r="B33" s="29"/>
       <c r="C33" s="29"/>
       <c r="D33" s="29"/>
       <c r="E33" s="29"/>
       <c r="F33" s="28">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="21">
-        <v>44734.0</v>
+        <v>44734</v>
       </c>
       <c r="B34" s="28">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C34" s="29"/>
       <c r="D34" s="29"/>
@@ -2257,13 +2246,13 @@
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="21">
-        <v>44735.0</v>
+        <v>44735</v>
       </c>
       <c r="B35" s="29"/>
       <c r="C35" s="28">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D35" s="29"/>
       <c r="E35" s="29"/>
@@ -2271,37 +2260,37 @@
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="21">
-        <v>44736.0</v>
+        <v>44736</v>
       </c>
       <c r="B36" s="29"/>
       <c r="C36" s="29"/>
       <c r="D36" s="28">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E36" s="29"/>
       <c r="F36" s="29"/>
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="21">
-        <v>44737.0</v>
+        <v>44737</v>
       </c>
       <c r="B37" s="29"/>
       <c r="C37" s="29"/>
       <c r="D37" s="29"/>
       <c r="E37" s="28">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F37" s="29"/>
       <c r="G37" s="14"/>
       <c r="H37" s="14"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="21">
-        <v>44738.0</v>
+        <v>44738</v>
       </c>
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
@@ -2311,26 +2300,26 @@
       <c r="G38" s="14"/>
       <c r="H38" s="14"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="21">
-        <v>44739.0</v>
+        <v>44739</v>
       </c>
       <c r="B39" s="29"/>
       <c r="C39" s="29"/>
       <c r="D39" s="29"/>
       <c r="E39" s="29"/>
       <c r="F39" s="28">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="21">
-        <v>44740.0</v>
+        <v>44740</v>
       </c>
       <c r="B40" s="28">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C40" s="29"/>
       <c r="D40" s="29"/>
@@ -2339,13 +2328,13 @@
       <c r="G40" s="14"/>
       <c r="H40" s="14"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="21">
-        <v>44741.0</v>
+        <v>44741</v>
       </c>
       <c r="B41" s="29"/>
       <c r="C41" s="28">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D41" s="29"/>
       <c r="E41" s="29"/>
@@ -2353,58 +2342,58 @@
       <c r="G41" s="14"/>
       <c r="H41" s="14"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="21">
-        <v>44742.0</v>
+        <v>44742</v>
       </c>
       <c r="B42" s="29"/>
       <c r="C42" s="29"/>
       <c r="D42" s="28">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E42" s="29"/>
       <c r="F42" s="29"/>
       <c r="G42" s="14"/>
       <c r="H42" s="14"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="21">
-        <v>44743.0</v>
+        <v>44743</v>
       </c>
       <c r="B43" s="29"/>
       <c r="C43" s="29"/>
       <c r="D43" s="29"/>
       <c r="E43" s="28">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F43" s="29"/>
       <c r="G43" s="14"/>
       <c r="H43" s="14"/>
     </row>
-    <row r="44">
+    <row r="44" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G44" s="14"/>
       <c r="H44" s="14"/>
     </row>
-    <row r="45">
+    <row r="45" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G45" s="14"/>
       <c r="H45" s="14"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" defaultColWidth="12.63" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1" s="7" t="s">
         <v>6</v>
       </c>
@@ -2421,7 +2410,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>13</v>
       </c>
@@ -2436,9 +2425,9 @@
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="21">
-        <v>44705.0</v>
+        <v>44705</v>
       </c>
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
@@ -2448,9 +2437,9 @@
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="21">
-        <v>44706.0</v>
+        <v>44706</v>
       </c>
       <c r="B4" s="29"/>
       <c r="C4" s="20"/>
@@ -2460,9 +2449,9 @@
       <c r="G4" s="27"/>
       <c r="H4" s="14"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="21">
-        <v>44707.0</v>
+        <v>44707</v>
       </c>
       <c r="B5" s="29"/>
       <c r="C5" s="29"/>
@@ -2472,27 +2461,27 @@
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="21">
-        <v>44708.0</v>
+        <v>44708</v>
       </c>
       <c r="B6" s="29"/>
       <c r="C6" s="29"/>
       <c r="D6" s="28">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="28">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="28">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="21">
-        <v>44709.0</v>
+        <v>44709</v>
       </c>
       <c r="B7" s="29"/>
       <c r="C7" s="29"/>
@@ -2502,9 +2491,9 @@
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="21">
-        <v>44710.0</v>
+        <v>44710</v>
       </c>
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
@@ -2514,9 +2503,9 @@
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="21">
-        <v>44711.0</v>
+        <v>44711</v>
       </c>
       <c r="B9" s="20"/>
       <c r="C9" s="29"/>
@@ -2526,25 +2515,25 @@
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="21">
-        <v>44712.0</v>
+        <v>44712</v>
       </c>
       <c r="B10" s="29"/>
       <c r="C10" s="28">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="29"/>
       <c r="E10" s="29"/>
       <c r="F10" s="28">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="21">
-        <v>44713.0</v>
+        <v>44713</v>
       </c>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
@@ -2554,9 +2543,9 @@
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="21">
-        <v>44714.0</v>
+        <v>44714</v>
       </c>
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
@@ -2566,9 +2555,9 @@
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="21">
-        <v>44715.0</v>
+        <v>44715</v>
       </c>
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
@@ -2578,9 +2567,9 @@
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="21">
-        <v>44716.0</v>
+        <v>44716</v>
       </c>
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
@@ -2590,9 +2579,9 @@
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="21">
-        <v>44717.0</v>
+        <v>44717</v>
       </c>
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
@@ -2602,9 +2591,9 @@
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="21">
-        <v>44718.0</v>
+        <v>44718</v>
       </c>
       <c r="B16" s="29"/>
       <c r="C16" s="29"/>
@@ -2614,9 +2603,9 @@
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="21">
-        <v>44719.0</v>
+        <v>44719</v>
       </c>
       <c r="B17" s="29"/>
       <c r="C17" s="29"/>
@@ -2626,9 +2615,9 @@
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="21">
-        <v>44720.0</v>
+        <v>44720</v>
       </c>
       <c r="B18" s="29"/>
       <c r="C18" s="29"/>
@@ -2638,9 +2627,9 @@
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="21">
-        <v>44721.0</v>
+        <v>44721</v>
       </c>
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
@@ -2650,9 +2639,9 @@
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="21">
-        <v>44722.0</v>
+        <v>44722</v>
       </c>
       <c r="B20" s="29"/>
       <c r="C20" s="29"/>
@@ -2662,9 +2651,9 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="21">
-        <v>44723.0</v>
+        <v>44723</v>
       </c>
       <c r="B21" s="29"/>
       <c r="C21" s="29"/>
@@ -2674,9 +2663,9 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="21">
-        <v>44724.0</v>
+        <v>44724</v>
       </c>
       <c r="B22" s="29"/>
       <c r="C22" s="29"/>
@@ -2686,9 +2675,9 @@
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="21">
-        <v>44725.0</v>
+        <v>44725</v>
       </c>
       <c r="B23" s="29"/>
       <c r="C23" s="29"/>
@@ -2698,9 +2687,9 @@
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="21">
-        <v>44726.0</v>
+        <v>44726</v>
       </c>
       <c r="B24" s="29"/>
       <c r="C24" s="29"/>
@@ -2710,9 +2699,9 @@
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="21">
-        <v>44727.0</v>
+        <v>44727</v>
       </c>
       <c r="B25" s="29"/>
       <c r="C25" s="29"/>
@@ -2722,9 +2711,9 @@
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="21">
-        <v>44728.0</v>
+        <v>44728</v>
       </c>
       <c r="B26" s="29"/>
       <c r="C26" s="29"/>
@@ -2734,9 +2723,9 @@
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="21">
-        <v>44729.0</v>
+        <v>44729</v>
       </c>
       <c r="B27" s="29"/>
       <c r="C27" s="29"/>
@@ -2746,9 +2735,9 @@
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="21">
-        <v>44730.0</v>
+        <v>44730</v>
       </c>
       <c r="B28" s="29"/>
       <c r="C28" s="29"/>
@@ -2758,9 +2747,9 @@
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="21">
-        <v>44731.0</v>
+        <v>44731</v>
       </c>
       <c r="B29" s="29"/>
       <c r="C29" s="29"/>
@@ -2770,9 +2759,9 @@
       <c r="G29" s="14"/>
       <c r="H29" s="14"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="21">
-        <v>44732.0</v>
+        <v>44732</v>
       </c>
       <c r="B30" s="29"/>
       <c r="C30" s="29"/>
@@ -2782,9 +2771,9 @@
       <c r="G30" s="14"/>
       <c r="H30" s="14"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="21">
-        <v>44733.0</v>
+        <v>44733</v>
       </c>
       <c r="B31" s="29"/>
       <c r="C31" s="29"/>
@@ -2794,9 +2783,9 @@
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="21">
-        <v>44734.0</v>
+        <v>44734</v>
       </c>
       <c r="B32" s="29"/>
       <c r="C32" s="29"/>
@@ -2806,9 +2795,9 @@
       <c r="G32" s="14"/>
       <c r="H32" s="14"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="21">
-        <v>44735.0</v>
+        <v>44735</v>
       </c>
       <c r="B33" s="29"/>
       <c r="C33" s="29"/>
@@ -2818,9 +2807,9 @@
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="21">
-        <v>44736.0</v>
+        <v>44736</v>
       </c>
       <c r="B34" s="29"/>
       <c r="C34" s="29"/>
@@ -2830,9 +2819,9 @@
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="21">
-        <v>44737.0</v>
+        <v>44737</v>
       </c>
       <c r="B35" s="29"/>
       <c r="C35" s="29"/>
@@ -2842,9 +2831,9 @@
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="21">
-        <v>44738.0</v>
+        <v>44738</v>
       </c>
       <c r="B36" s="29"/>
       <c r="C36" s="29"/>
@@ -2854,9 +2843,9 @@
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="21">
-        <v>44739.0</v>
+        <v>44739</v>
       </c>
       <c r="B37" s="29"/>
       <c r="C37" s="29"/>
@@ -2866,9 +2855,9 @@
       <c r="G37" s="14"/>
       <c r="H37" s="14"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="21">
-        <v>44740.0</v>
+        <v>44740</v>
       </c>
       <c r="B38" s="29"/>
       <c r="C38" s="29"/>
@@ -2878,9 +2867,9 @@
       <c r="G38" s="14"/>
       <c r="H38" s="14"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="21">
-        <v>44741.0</v>
+        <v>44741</v>
       </c>
       <c r="B39" s="29"/>
       <c r="C39" s="29"/>
@@ -2890,9 +2879,9 @@
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="21">
-        <v>44742.0</v>
+        <v>44742</v>
       </c>
       <c r="B40" s="29"/>
       <c r="C40" s="29"/>
@@ -2902,9 +2891,9 @@
       <c r="G40" s="14"/>
       <c r="H40" s="14"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="21">
-        <v>44743.0</v>
+        <v>44743</v>
       </c>
       <c r="B41" s="29"/>
       <c r="C41" s="29"/>
@@ -2914,50 +2903,50 @@
       <c r="G41" s="14"/>
       <c r="H41" s="14"/>
     </row>
-    <row r="42">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="31">
         <f>SUM(B2,B41)</f>
         <v>0</v>
       </c>
       <c r="C42" s="31">
-        <f t="shared" ref="C42:F42" si="1">SUM(C2:C41)</f>
+        <f t="shared" ref="C42:F42" si="0">SUM(C2:C41)</f>
         <v>1</v>
       </c>
       <c r="D42" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E42" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F42" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G42" s="14"/>
       <c r="H42" s="14"/>
     </row>
-    <row r="43">
+    <row r="43" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G43" s="14"/>
       <c r="H43" s="14"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A3:H43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" defaultColWidth="12.63" customHeight="1"/>
   <sheetData>
-    <row r="3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
@@ -2980,7 +2969,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>13</v>
       </c>
@@ -2992,9 +2981,9 @@
       <c r="G4" s="26"/>
       <c r="H4" s="30"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="21">
-        <v>44705.0</v>
+        <v>44705</v>
       </c>
       <c r="B5" s="29"/>
       <c r="C5" s="29"/>
@@ -3004,9 +2993,9 @@
       <c r="G5" s="30"/>
       <c r="H5" s="30"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="21">
-        <v>44706.0</v>
+        <v>44706</v>
       </c>
       <c r="B6" s="29"/>
       <c r="C6" s="20"/>
@@ -3016,9 +3005,9 @@
       <c r="G6" s="30"/>
       <c r="H6" s="30"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="21">
-        <v>44707.0</v>
+        <v>44707</v>
       </c>
       <c r="B7" s="29"/>
       <c r="C7" s="29"/>
@@ -3028,47 +3017,47 @@
       <c r="G7" s="30"/>
       <c r="H7" s="30"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="21">
-        <v>44708.0</v>
+        <v>44708</v>
       </c>
       <c r="B8" s="28">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="28">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="28">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="29"/>
       <c r="F8" s="28">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="26">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="30"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="21">
-        <v>44709.0</v>
+        <v>44709</v>
       </c>
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
       <c r="D9" s="28">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="20">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="29"/>
       <c r="G9" s="30"/>
       <c r="H9" s="30"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="21">
-        <v>44710.0</v>
+        <v>44710</v>
       </c>
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
@@ -3078,31 +3067,31 @@
       <c r="G10" s="30"/>
       <c r="H10" s="30"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="21">
-        <v>44711.0</v>
+        <v>44711</v>
       </c>
       <c r="B11" s="20">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C11" s="28">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="28">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E11" s="28">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="28">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="30"/>
       <c r="H11" s="30"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="21">
-        <v>44712.0</v>
+        <v>44712</v>
       </c>
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
@@ -3112,9 +3101,9 @@
       <c r="G12" s="30"/>
       <c r="H12" s="30"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="21">
-        <v>44713.0</v>
+        <v>44713</v>
       </c>
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
@@ -3124,9 +3113,9 @@
       <c r="G13" s="30"/>
       <c r="H13" s="30"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="21">
-        <v>44714.0</v>
+        <v>44714</v>
       </c>
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
@@ -3136,9 +3125,9 @@
       <c r="G14" s="30"/>
       <c r="H14" s="30"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="21">
-        <v>44715.0</v>
+        <v>44715</v>
       </c>
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
@@ -3148,9 +3137,9 @@
       <c r="G15" s="30"/>
       <c r="H15" s="30"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="21">
-        <v>44716.0</v>
+        <v>44716</v>
       </c>
       <c r="B16" s="29"/>
       <c r="C16" s="29"/>
@@ -3160,9 +3149,9 @@
       <c r="G16" s="30"/>
       <c r="H16" s="30"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="21">
-        <v>44717.0</v>
+        <v>44717</v>
       </c>
       <c r="B17" s="29"/>
       <c r="C17" s="29"/>
@@ -3172,9 +3161,9 @@
       <c r="G17" s="30"/>
       <c r="H17" s="30"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="21">
-        <v>44718.0</v>
+        <v>44718</v>
       </c>
       <c r="B18" s="29"/>
       <c r="C18" s="29"/>
@@ -3184,9 +3173,9 @@
       <c r="G18" s="30"/>
       <c r="H18" s="30"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="21">
-        <v>44719.0</v>
+        <v>44719</v>
       </c>
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
@@ -3196,9 +3185,9 @@
       <c r="G19" s="30"/>
       <c r="H19" s="30"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="21">
-        <v>44720.0</v>
+        <v>44720</v>
       </c>
       <c r="B20" s="29"/>
       <c r="C20" s="29"/>
@@ -3208,9 +3197,9 @@
       <c r="G20" s="30"/>
       <c r="H20" s="30"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="21">
-        <v>44721.0</v>
+        <v>44721</v>
       </c>
       <c r="B21" s="29"/>
       <c r="C21" s="29"/>
@@ -3220,9 +3209,9 @@
       <c r="G21" s="30"/>
       <c r="H21" s="30"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="21">
-        <v>44722.0</v>
+        <v>44722</v>
       </c>
       <c r="B22" s="29"/>
       <c r="C22" s="29"/>
@@ -3232,9 +3221,9 @@
       <c r="G22" s="30"/>
       <c r="H22" s="30"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="21">
-        <v>44723.0</v>
+        <v>44723</v>
       </c>
       <c r="B23" s="29"/>
       <c r="C23" s="29"/>
@@ -3244,9 +3233,9 @@
       <c r="G23" s="30"/>
       <c r="H23" s="30"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="21">
-        <v>44724.0</v>
+        <v>44724</v>
       </c>
       <c r="B24" s="29"/>
       <c r="C24" s="29"/>
@@ -3256,9 +3245,9 @@
       <c r="G24" s="30"/>
       <c r="H24" s="30"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="21">
-        <v>44725.0</v>
+        <v>44725</v>
       </c>
       <c r="B25" s="29"/>
       <c r="C25" s="29"/>
@@ -3268,23 +3257,23 @@
       <c r="G25" s="30"/>
       <c r="H25" s="30"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="21">
-        <v>44726.0</v>
+        <v>44726</v>
       </c>
       <c r="B26" s="29"/>
       <c r="C26" s="29"/>
       <c r="D26" s="29"/>
       <c r="E26" s="28">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F26" s="29"/>
       <c r="G26" s="30"/>
       <c r="H26" s="30"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="21">
-        <v>44727.0</v>
+        <v>44727</v>
       </c>
       <c r="B27" s="29"/>
       <c r="C27" s="29"/>
@@ -3294,9 +3283,9 @@
       <c r="G27" s="30"/>
       <c r="H27" s="30"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="21">
-        <v>44728.0</v>
+        <v>44728</v>
       </c>
       <c r="B28" s="29"/>
       <c r="C28" s="29"/>
@@ -3306,9 +3295,9 @@
       <c r="G28" s="30"/>
       <c r="H28" s="30"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="21">
-        <v>44729.0</v>
+        <v>44729</v>
       </c>
       <c r="B29" s="29"/>
       <c r="C29" s="29"/>
@@ -3318,9 +3307,9 @@
       <c r="G29" s="30"/>
       <c r="H29" s="30"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="21">
-        <v>44730.0</v>
+        <v>44730</v>
       </c>
       <c r="B30" s="29"/>
       <c r="C30" s="29"/>
@@ -3330,9 +3319,9 @@
       <c r="G30" s="30"/>
       <c r="H30" s="30"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="21">
-        <v>44731.0</v>
+        <v>44731</v>
       </c>
       <c r="B31" s="29"/>
       <c r="C31" s="29"/>
@@ -3342,9 +3331,9 @@
       <c r="G31" s="30"/>
       <c r="H31" s="30"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="21">
-        <v>44732.0</v>
+        <v>44732</v>
       </c>
       <c r="B32" s="29"/>
       <c r="C32" s="29"/>
@@ -3354,9 +3343,9 @@
       <c r="G32" s="30"/>
       <c r="H32" s="30"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="21">
-        <v>44733.0</v>
+        <v>44733</v>
       </c>
       <c r="B33" s="29"/>
       <c r="C33" s="29"/>
@@ -3366,9 +3355,9 @@
       <c r="G33" s="30"/>
       <c r="H33" s="30"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="21">
-        <v>44734.0</v>
+        <v>44734</v>
       </c>
       <c r="B34" s="29"/>
       <c r="C34" s="29"/>
@@ -3378,23 +3367,23 @@
       <c r="G34" s="30"/>
       <c r="H34" s="30"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="21">
-        <v>44735.0</v>
+        <v>44735</v>
       </c>
       <c r="B35" s="29"/>
       <c r="C35" s="29"/>
       <c r="D35" s="29"/>
       <c r="E35" s="29"/>
       <c r="F35" s="28">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G35" s="30"/>
       <c r="H35" s="30"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="21">
-        <v>44736.0</v>
+        <v>44736</v>
       </c>
       <c r="B36" s="29"/>
       <c r="C36" s="29"/>
@@ -3404,9 +3393,9 @@
       <c r="G36" s="30"/>
       <c r="H36" s="30"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="21">
-        <v>44737.0</v>
+        <v>44737</v>
       </c>
       <c r="B37" s="29"/>
       <c r="C37" s="29"/>
@@ -3416,9 +3405,9 @@
       <c r="G37" s="30"/>
       <c r="H37" s="30"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="21">
-        <v>44738.0</v>
+        <v>44738</v>
       </c>
       <c r="B38" s="29"/>
       <c r="C38" s="29"/>
@@ -3428,9 +3417,9 @@
       <c r="G38" s="30"/>
       <c r="H38" s="30"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="21">
-        <v>44739.0</v>
+        <v>44739</v>
       </c>
       <c r="B39" s="29"/>
       <c r="C39" s="29"/>
@@ -3440,9 +3429,9 @@
       <c r="G39" s="30"/>
       <c r="H39" s="30"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="21">
-        <v>44740.0</v>
+        <v>44740</v>
       </c>
       <c r="B40" s="29"/>
       <c r="C40" s="29"/>
@@ -3452,9 +3441,9 @@
       <c r="G40" s="30"/>
       <c r="H40" s="30"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="21">
-        <v>44741.0</v>
+        <v>44741</v>
       </c>
       <c r="B41" s="29"/>
       <c r="C41" s="29"/>
@@ -3464,9 +3453,9 @@
       <c r="G41" s="30"/>
       <c r="H41" s="30"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="21">
-        <v>44742.0</v>
+        <v>44742</v>
       </c>
       <c r="B42" s="29"/>
       <c r="C42" s="29"/>
@@ -3476,34 +3465,33 @@
       <c r="G42" s="30"/>
       <c r="H42" s="30"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="19" t="s">
         <v>17</v>
       </c>
       <c r="B43" s="29">
-        <f t="shared" ref="B43:F43" si="1">SUM(B4:B42)</f>
+        <f t="shared" ref="B43:F43" si="0">SUM(B4:B42)</f>
         <v>2</v>
       </c>
       <c r="C43" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D43" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E43" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F43" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G43" s="26"/>
       <c r="H43" s="30"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>